--- a/2025 10 13 - SGA MOD - V31 - send 1.xlsx
+++ b/2025 10 13 - SGA MOD - V31 - send 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://empresassk-my.sharepoint.com/personal/raravena_magotteaux_com/Documents/Documentos/info/00 Budget 2026/0 SGA/00 FINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilprafi\Desktop\Practica DP fin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{E3303386-50A7-46E4-ACA3-F0FA37B4E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481FF435-3B08-452B-8057-0572F7FB010A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38D258-0EE0-4439-9BE7-E12F7796A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="794" xr2:uid="{1F6569A4-60A1-425C-9C9C-CCD538F6FF17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="794" activeTab="2" xr2:uid="{1F6569A4-60A1-425C-9C9C-CCD538F6FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="TD" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <definedName name="EV__WBREFOPTIONS__" hidden="1">63</definedName>
     <definedName name="EV__WBVERSION__" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="16"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4913" uniqueCount="241">
   <si>
     <t>Grupo</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>MCL1033072</t>
+  </si>
+  <si>
+    <t>Internal Transport Cost</t>
   </si>
 </sst>
 </file>
@@ -26105,7 +26111,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E3D7D7-8299-45DF-9CF8-695AA3CFCA9D}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E3D7D7-8299-45DF-9CF8-695AA3CFCA9D}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A5:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -26612,16 +26618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909AF87-7383-47E0-BEC0-8CECF52EC56F}">
   <dimension ref="A3:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
@@ -27114,27 +27120,27 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2"/>
-    <col min="10" max="10" width="46.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="30" customWidth="1"/>
-    <col min="12" max="22" width="7.77734375" style="30" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" style="25"/>
-    <col min="24" max="24" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.5546875" style="2"/>
+    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="2"/>
+    <col min="10" max="10" width="46.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="30" customWidth="1"/>
+    <col min="12" max="22" width="7.81640625" style="30" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" style="25"/>
+    <col min="24" max="24" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.54296875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1">
@@ -62996,180 +63002,191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286C31DE-03E7-403A-BD3D-7DF404439DD2}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="2" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="18" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="11" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="11" t="s">
-        <v>87</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="11" t="s">
-        <v>89</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="11" t="s">
-        <v>91</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="11" t="s">
-        <v>93</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="11" t="s">
-        <v>97</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="45" t="s">
-        <v>228</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="45" t="s">
-        <v>230</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="45" t="s">
-        <v>232</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="46" t="s">
         <v>142</v>
       </c>
     </row>

--- a/2025 10 13 - SGA MOD - V31 - send 1.xlsx
+++ b/2025 10 13 - SGA MOD - V31 - send 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilprafi\Desktop\Practica DP fin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38D258-0EE0-4439-9BE7-E12F7796A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A2CCB-E360-4B10-81A1-4B7FC438681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="794" activeTab="2" xr2:uid="{1F6569A4-60A1-425C-9C9C-CCD538F6FF17}"/>
   </bookViews>
@@ -63005,7 +63005,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
